--- a/meta/program/BlancoValueObjectKtTask.xlsx
+++ b/meta/program/BlancoValueObjectKtTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA2DBB5-E257-C240-B385-25CAFB6C9859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999550D4-CC1D-9344-A08C-103465074612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,22 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -270,6 +280,24 @@
   </si>
   <si>
     <t>バリューオブジェクト定義書からソースコードを自動生成する BlancoValueObjectKtのAntTaskです。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lineSeparator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>行末記号をしていします。LF=0x0a, CR=0x0d, CFLF=0x0d0x0a とします。LFがデフォルトです。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ギョウマツ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">キゴウヲ </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -737,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -845,6 +873,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -880,15 +918,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,10 +1296,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1307,10 +1345,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1320,10 +1358,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
@@ -1334,10 +1372,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1348,10 +1386,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1383,38 +1421,38 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="44">
@@ -1430,12 +1468,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="49">
@@ -1451,12 +1489,12 @@
       <c r="E15" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="49">
@@ -1472,12 +1510,12 @@
       <c r="E16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="49">
@@ -1554,23 +1592,34 @@
       <c r="E20" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="42"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="69"/>
+    </row>
+    <row r="21" spans="1:9" ht="52" customHeight="1">
+      <c r="A21" s="49">
+        <f t="shared" ref="A21" si="0">A20+1</f>
+        <v>8</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
+      <c r="E21" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="83"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="22"/>
@@ -1617,23 +1666,30 @@
       <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F14:I14"/>
+  <mergeCells count="15">
+    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -1643,17 +1699,22 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D26" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D22:D27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C26" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C22:C27" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoValueObjectKtTask.xlsx
+++ b/meta/program/BlancoValueObjectKtTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999550D4-CC1D-9344-A08C-103465074612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48920B8A-758A-404E-894A-AE6CD788FD13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -297,6 +297,55 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t xml:space="preserve">キゴウヲ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>packageSuffix</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>overridePackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名の後ろに追加するパッケージ文字列を指定します。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ウシロニ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シテイ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -765,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -873,15 +922,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -918,16 +967,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1296,10 +1346,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1345,10 +1395,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1358,10 +1408,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
@@ -1372,10 +1422,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1386,10 +1436,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1468,12 +1518,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="49">
@@ -1601,7 +1651,7 @@
     </row>
     <row r="21" spans="1:9" ht="52" customHeight="1">
       <c r="A21" s="49">
-        <f t="shared" ref="A21" si="0">A20+1</f>
+        <f t="shared" ref="A21:A23" si="0">A20+1</f>
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -1611,34 +1661,52 @@
         <v>17</v>
       </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="83"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
+      <c r="F22" s="84" t="s">
+        <v>52</v>
+      </c>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="42"/>
+      <c r="A23" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="D23" s="24"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
+      <c r="F23" s="84" t="s">
+        <v>51</v>
+      </c>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="27"/>
@@ -1677,44 +1745,55 @@
       <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F12:I13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F43" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F44" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D22:D27" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D22:D28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C22:C27" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C22:C28" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoValueObjectKtTask.xlsx
+++ b/meta/program/BlancoValueObjectKtTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48920B8A-758A-404E-894A-AE6CD788FD13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2EDE35-3881-CC4D-A780-2AF03BDBF087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -349,12 +349,44 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>searchTmpdir</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>import文作成のために検索するtmpディレクトリをカンマ区切りで指定します。指定ディレクトリ直下のvalueobjectディレクトリの下にxmlを探しにいきます。</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ケンサク </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">チョッカ </t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t xml:space="preserve">シタニ </t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -407,6 +439,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -440,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -810,11 +848,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -923,6 +974,29 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -955,29 +1029,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1346,10 +1408,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1395,10 +1457,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1408,10 +1470,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
@@ -1422,10 +1484,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1436,10 +1498,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1471,38 +1533,38 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="44">
@@ -1518,12 +1580,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="49">
@@ -1539,12 +1601,12 @@
       <c r="E15" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="49">
@@ -1560,14 +1622,14 @@
       <c r="E16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="49">
         <v>4</v>
       </c>
@@ -1586,7 +1648,7 @@
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="22">
         <v>5</v>
       </c>
@@ -1607,7 +1669,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="57">
         <v>6</v>
       </c>
@@ -1628,7 +1690,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="1:9" ht="66" customHeight="1">
+    <row r="20" spans="1:10" ht="66" customHeight="1">
       <c r="A20" s="22">
         <v>7</v>
       </c>
@@ -1642,16 +1704,16 @@
       <c r="E20" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
-    </row>
-    <row r="21" spans="1:9" ht="52" customHeight="1">
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="78"/>
+    </row>
+    <row r="21" spans="1:10" ht="52" customHeight="1">
       <c r="A21" s="49">
-        <f t="shared" ref="A21:A23" si="0">A20+1</f>
+        <f t="shared" ref="A21:A24" si="0">A20+1</f>
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -1664,14 +1726,14 @@
       <c r="E21" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="66"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="49">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1684,14 +1746,14 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="84" t="s">
+      <c r="F22" s="64" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1704,25 +1766,35 @@
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="64" t="s">
         <v>51</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:9">
+    <row r="24" spans="1:10" s="91" customFormat="1">
+      <c r="A24" s="85">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="90"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
       <c r="C25" s="42"/>
@@ -1733,7 +1805,7 @@
       <c r="H25" s="26"/>
       <c r="I25" s="27"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="22"/>
       <c r="B26" s="23"/>
       <c r="C26" s="42"/>
@@ -1744,7 +1816,7 @@
       <c r="H26" s="26"/>
       <c r="I26" s="27"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
       <c r="C27" s="42"/>
@@ -1755,19 +1827,35 @@
       <c r="H27" s="26"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+    <row r="28" spans="1:10">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F12:I13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1778,23 +1866,22 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F12:I13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F45" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D22:D28" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D22:D23 D25:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C22:C28" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C22:C23 C25:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D24" xr:uid="{20C59D3E-A104-694F-8E50-28A1C51E7C99}">
+      <formula1>必須</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.39375000000000004" header="0.51180555555555562" footer="0.11805555555555557"/>

--- a/meta/program/BlancoValueObjectKtTask.xlsx
+++ b/meta/program/BlancoValueObjectKtTask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2EDE35-3881-CC4D-A780-2AF03BDBF087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA1AB4D-62C0-9F4C-BBCE-964987DEFF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -378,6 +378,26 @@
     </rPh>
     <rPh sb="75" eb="76">
       <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>serdeable</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文クラスに@Serdeableアノテーションを付与します。</t>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -865,24 +885,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,9 +914,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,19 +924,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -940,7 +952,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,91 +967,77 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1408,10 +1406,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1432,7 +1430,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1457,58 +1455,56 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
+      <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10"/>
@@ -1520,342 +1516,369 @@
       <c r="G10"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
-      <c r="A14" s="44">
+      <c r="A14" s="36">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="66" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
-      <c r="A15" s="49">
+      <c r="A15" s="41">
+        <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="61" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
-      <c r="A16" s="49">
+      <c r="A16" s="41">
+        <f t="shared" ref="A16:A25" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="49">
+      <c r="A17" s="41">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="22">
+      <c r="A18" s="41">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="56" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="57">
+      <c r="A19" s="41">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="59" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:10" ht="66" customHeight="1">
-      <c r="A20" s="22">
+      <c r="A20" s="41">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="62" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="78"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:10" ht="52" customHeight="1">
-      <c r="A21" s="49">
-        <f t="shared" ref="A21:A24" si="0">A20+1</f>
+      <c r="A21" s="41">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="63" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="49">
+      <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="64" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="49">
+      <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="64" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:10" s="91" customFormat="1">
-      <c r="A24" s="85">
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
+    </row>
+    <row r="24" spans="1:10" s="56" customFormat="1">
+      <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89" t="s">
+      <c r="D24" s="54"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="90"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+      <c r="A25" s="41">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F12:I13"/>
+  <mergeCells count="19">
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1866,17 +1889,22 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F12:I13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F45" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F46" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D22:D23 D25:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D22:D23 D25:D30" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C22:C23 C25:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C22:C23 C25:C30" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D24" xr:uid="{20C59D3E-A104-694F-8E50-28A1C51E7C99}">
@@ -1913,10 +1941,10 @@
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="F1" s="34" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1924,63 +1952,63 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="40"/>
+      <c r="A10" s="32"/>
       <c r="B10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40"/>
+      <c r="A11" s="32"/>
       <c r="B11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
+      <c r="A12" s="33"/>
       <c r="B12"/>
     </row>
     <row r="13" spans="1:6">

--- a/meta/program/BlancoValueObjectKtTask.xlsx
+++ b/meta/program/BlancoValueObjectKtTask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA1AB4D-62C0-9F4C-BBCE-964987DEFF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EF19F5-B391-E348-945D-F21DE23CD21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21280" yWindow="1400" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -391,13 +392,18 @@
       <t>ヨウソ</t>
     </rPh>
     <rPh sb="18" eb="20">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒツヨウ</t>
+      <t>シュツリョクイコウヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ignoreUnkown</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文クラスに@JsonIgnoreProperties(ignoreUnknown = true)アノテーションを付与します。</t>
+    <rPh sb="51" eb="53">
+      <t>シュツリョクイコウヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -996,6 +1002,25 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1017,25 +1042,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,7 +1412,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
@@ -1455,10 +1461,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1467,10 +1473,10 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
@@ -1481,10 +1487,10 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1495,10 +1501,10 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1529,38 +1535,38 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="36">
@@ -1576,12 +1582,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="72"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="41">
@@ -1598,16 +1604,16 @@
       <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="41">
-        <f t="shared" ref="A16:A25" si="0">A15+1</f>
+        <f t="shared" ref="A16:A26" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="42" t="s">
@@ -1620,12 +1626,12 @@
       <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41">
@@ -1706,12 +1712,12 @@
       <c r="E20" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="69"/>
     </row>
     <row r="21" spans="1:10" ht="52" customHeight="1">
       <c r="A21" s="41">
@@ -1819,15 +1825,26 @@
       <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+      <c r="E26" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="17"/>
@@ -1863,18 +1880,33 @@
       <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F26:I26"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
@@ -1891,20 +1923,17 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F12:I13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F46" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D22:D23 D25:D30" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D22:D23 D25:D31" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C22:C23 C25:C30" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C22:C23 C25:C31" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D24" xr:uid="{20C59D3E-A104-694F-8E50-28A1C51E7C99}">

--- a/meta/program/BlancoValueObjectKtTask.xlsx
+++ b/meta/program/BlancoValueObjectKtTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EF19F5-B391-E348-945D-F21DE23CD21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3322EDCF-3D05-4C4C-A8C4-313A3925A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21280" yWindow="1400" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,6 @@
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -397,14 +396,14 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ignoreUnkown</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>電文クラスに@JsonIgnoreProperties(ignoreUnknown = true)アノテーションを付与します。</t>
     <rPh sb="51" eb="53">
       <t>シュツリョクイコウヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ignoreUnknown</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -994,6 +993,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,24 +1043,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1415,7 +1414,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1461,10 +1460,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1473,10 +1472,10 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
@@ -1487,10 +1486,10 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1501,10 +1500,10 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1535,38 +1534,38 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="36">
@@ -1582,12 +1581,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="41">
@@ -1604,12 +1603,12 @@
       <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="41">
@@ -1626,12 +1625,12 @@
       <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41">
@@ -1712,12 +1711,12 @@
       <c r="E20" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:10" ht="52" customHeight="1">
       <c r="A21" s="41">
@@ -1734,12 +1733,12 @@
       <c r="E21" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="41">
@@ -1754,12 +1753,12 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="41">
@@ -1774,12 +1773,12 @@
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1">
       <c r="A24" s="41">
@@ -1794,12 +1793,12 @@
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="49"/>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10">
@@ -1817,12 +1816,12 @@
       <c r="E25" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="41">
@@ -1830,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>21</v>
@@ -1839,12 +1838,12 @@
       <c r="E26" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="F26" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="17"/>
@@ -1903,14 +1902,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1921,6 +1912,14 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F20:I20"/>
   </mergeCells>

--- a/meta/program/BlancoValueObjectKtTask.xlsx
+++ b/meta/program/BlancoValueObjectKtTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3322EDCF-3D05-4C4C-A8C4-313A3925A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1BA992-3662-8347-80DC-522AAA88468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21280" yWindow="1400" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -404,6 +404,23 @@
   </si>
   <si>
     <t>ignoreUnknown</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>nullableAnnotation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「必須」が指定されていないパラメータに@Nullableアノテーションを強制します</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">キョウセイシマス </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -992,33 +1009,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1037,6 +1027,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1411,10 +1428,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F27" sqref="F27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1460,10 +1477,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1472,10 +1489,10 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
@@ -1486,10 +1503,10 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1500,10 +1517,10 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1534,38 +1551,38 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="36">
@@ -1581,12 +1598,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="41">
@@ -1603,16 +1620,16 @@
       <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="41">
-        <f t="shared" ref="A16:A26" si="0">A15+1</f>
+        <f t="shared" ref="A16:A27" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="42" t="s">
@@ -1625,12 +1642,12 @@
       <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41">
@@ -1733,12 +1750,12 @@
       <c r="E21" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="41">
@@ -1753,12 +1770,12 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="41">
@@ -1773,12 +1790,12 @@
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1">
       <c r="A24" s="41">
@@ -1793,12 +1810,12 @@
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="49"/>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10">
@@ -1816,12 +1833,12 @@
       <c r="E25" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="41">
@@ -1838,23 +1855,34 @@
       <c r="E26" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="41">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
+      <c r="E27" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="17"/>
@@ -1890,18 +1918,40 @@
       <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F20:I20"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1912,27 +1962,17 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F20:I20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F47" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F48" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D22:D23 D25:D31" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D22:D23 D25:D32" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C22:C23 C25:C31" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C22:C23 C25:C32" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D24" xr:uid="{20C59D3E-A104-694F-8E50-28A1C51E7C99}">
